--- a/Training/LSTM_ETH_result2.xlsx
+++ b/Training/LSTM_ETH_result2.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>49.61556837751115</v>
+        <v>48.79985551585974</v>
       </c>
       <c r="F1" t="n">
-        <v>45.42449969417943</v>
+        <v>43.71414706228352</v>
       </c>
       <c r="G1" t="n">
-        <v>3.480927280322911</v>
+        <v>3.383934722612455</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>50.03039534373949</v>
+        <v>51.17900140102689</v>
       </c>
       <c r="F2" t="n">
-        <v>45.81340863371324</v>
+        <v>46.16238542755903</v>
       </c>
       <c r="G2" t="n">
-        <v>3.511211531813952</v>
+        <v>3.566347156531567</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>53.32996844632675</v>
+        <v>38.82852787991773</v>
       </c>
       <c r="F3" t="n">
-        <v>49.41870884788156</v>
+        <v>35.68157559723434</v>
       </c>
       <c r="G3" t="n">
-        <v>3.770915377666801</v>
+        <v>2.682452606748879</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>42.98649296007194</v>
+        <v>106.6943049200783</v>
       </c>
       <c r="F4" t="n">
-        <v>38.84597117545862</v>
+        <v>100.1493212265101</v>
       </c>
       <c r="G4" t="n">
-        <v>2.992987755492581</v>
+        <v>7.67822374536126</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>43.24006443766527</v>
+        <v>42.19906272848711</v>
       </c>
       <c r="F5" t="n">
-        <v>39.45852939865898</v>
+        <v>37.50061217631534</v>
       </c>
       <c r="G5" t="n">
-        <v>3.025572237188089</v>
+        <v>2.910108566283272</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>46.14590313198751</v>
+        <v>41.96314739930055</v>
       </c>
       <c r="F6" t="n">
-        <v>42.2440218600843</v>
+        <v>37.13297856370627</v>
       </c>
       <c r="G6" t="n">
-        <v>3.239658926734837</v>
+        <v>2.885571707735323</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>106.6327844497081</v>
+        <v>103.7636093351819</v>
       </c>
       <c r="F7" t="n">
-        <v>103.3151428342264</v>
+        <v>99.28400034263704</v>
       </c>
       <c r="G7" t="n">
-        <v>7.768913984216207</v>
+        <v>7.520611657442612</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>37.20396494970655</v>
+        <v>98.62849450666432</v>
       </c>
       <c r="F8" t="n">
-        <v>33.66014430422977</v>
+        <v>93.68304493214468</v>
       </c>
       <c r="G8" t="n">
-        <v>2.578469307998734</v>
+        <v>7.127197717804969</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>57.51982664040442</v>
+        <v>62.5410735682137</v>
       </c>
       <c r="F9" t="n">
-        <v>52.47922174113326</v>
+        <v>56.16142509410874</v>
       </c>
       <c r="G9" t="n">
-        <v>4.057419516941404</v>
+        <v>4.376078974515887</v>
       </c>
     </row>
   </sheetData>
